--- a/biology/Médecine/Eva_Bernoulli/Eva_Bernoulli.xlsx
+++ b/biology/Médecine/Eva_Bernoulli/Eva_Bernoulli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eva Bernoulli, née le 4 mars 1903 à Berlin et décédée le 12 juin 1995 à Bâle, est une orthophoniste et enseignante suisse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eva Bernoulli, née le 4 mars 1903 à Berlin et décédée le 12 juin 1995 à Bâle, est une orthophoniste et enseignante suisse.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eva Bernoulli est la fille du théologien et écrivain Carl Albrecht Bernoulli et de Paula Heydenreich. Elle grandit à Arlesheim. Elle étudie l'orthophonie à Zurich et devient la première orthophoniste suisse diplômée en 1948.
-En 1986, elle reçut le titre de docteur Honoris Causa en médecine de l'université de Bâle pour son activité de pionnier dans le domaine des troubles du langage et de la communication[2].
+En 1986, elle reçut le titre de docteur Honoris Causa en médecine de l'université de Bâle pour son activité de pionnier dans le domaine des troubles du langage et de la communication.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Eva Bernoulli, Mein Weg zu Sprache und Stimme, F. Reinhardt, 1984[3].
-Eva Bernoulli, Erinnerungen an meinen Vater Carl Albrecht Bernoulli 1868–1937, 1987[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eva Bernoulli, Mein Weg zu Sprache und Stimme, F. Reinhardt, 1984.
+Eva Bernoulli, Erinnerungen an meinen Vater Carl Albrecht Bernoulli 1868–1937, 1987.</t>
         </is>
       </c>
     </row>
